--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ifnl2-Il10rb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ifnl2-Il10rb.xlsx
@@ -543,10 +543,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.001661666666666667</v>
+        <v>0.001364</v>
       </c>
       <c r="H2">
-        <v>0.004985</v>
+        <v>0.004092</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.628124</v>
+        <v>17.322719</v>
       </c>
       <c r="N2">
-        <v>49.88437200000001</v>
+        <v>51.96815700000001</v>
       </c>
       <c r="O2">
-        <v>0.04087652497056827</v>
+        <v>0.03706849169984819</v>
       </c>
       <c r="P2">
-        <v>0.04087652497056828</v>
+        <v>0.03706849169984818</v>
       </c>
       <c r="Q2">
-        <v>0.02763039938</v>
+        <v>0.023628188716</v>
       </c>
       <c r="R2">
-        <v>0.24867359442</v>
+        <v>0.212653698444</v>
       </c>
       <c r="S2">
-        <v>0.04087652497056827</v>
+        <v>0.03706849169984819</v>
       </c>
       <c r="T2">
-        <v>0.04087652497056828</v>
+        <v>0.03706849169984818</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.001661666666666667</v>
+        <v>0.001364</v>
       </c>
       <c r="H3">
-        <v>0.004985</v>
+        <v>0.004092</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>25.24588</v>
       </c>
       <c r="O3">
-        <v>0.02068711708396308</v>
+        <v>0.01800769446635106</v>
       </c>
       <c r="P3">
-        <v>0.02068711708396309</v>
+        <v>0.01800769446635106</v>
       </c>
       <c r="Q3">
-        <v>0.01398341242222222</v>
+        <v>0.01147846010666667</v>
       </c>
       <c r="R3">
-        <v>0.1258507118</v>
+        <v>0.10330614096</v>
       </c>
       <c r="S3">
-        <v>0.02068711708396308</v>
+        <v>0.01800769446635106</v>
       </c>
       <c r="T3">
-        <v>0.02068711708396309</v>
+        <v>0.01800769446635106</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.001661666666666667</v>
+        <v>0.001364</v>
       </c>
       <c r="H4">
-        <v>0.004985</v>
+        <v>0.004092</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>102.101612</v>
+        <v>115.6233063333333</v>
       </c>
       <c r="N4">
-        <v>306.304836</v>
+        <v>346.869919</v>
       </c>
       <c r="O4">
-        <v>0.250993984195287</v>
+        <v>0.2474196788117483</v>
       </c>
       <c r="P4">
-        <v>0.250993984195287</v>
+        <v>0.2474196788117483</v>
       </c>
       <c r="Q4">
-        <v>0.1696588452733333</v>
+        <v>0.1577101898386667</v>
       </c>
       <c r="R4">
-        <v>1.52692960746</v>
+        <v>1.419391708548</v>
       </c>
       <c r="S4">
-        <v>0.250993984195287</v>
+        <v>0.2474196788117483</v>
       </c>
       <c r="T4">
-        <v>0.250993984195287</v>
+        <v>0.2474196788117483</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.001661666666666667</v>
+        <v>0.001364</v>
       </c>
       <c r="H5">
-        <v>0.004985</v>
+        <v>0.004092</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.671913333333333</v>
+        <v>3.245906333333334</v>
       </c>
       <c r="N5">
-        <v>14.01574</v>
+        <v>9.737719</v>
       </c>
       <c r="O5">
-        <v>0.01148485433656441</v>
+        <v>0.006945841006579355</v>
       </c>
       <c r="P5">
-        <v>0.01148485433656441</v>
+        <v>0.006945841006579355</v>
       </c>
       <c r="Q5">
-        <v>0.007763162655555555</v>
+        <v>0.004427416238666667</v>
       </c>
       <c r="R5">
-        <v>0.0698684639</v>
+        <v>0.039846746148</v>
       </c>
       <c r="S5">
-        <v>0.01148485433656441</v>
+        <v>0.006945841006579355</v>
       </c>
       <c r="T5">
-        <v>0.01148485433656441</v>
+        <v>0.006945841006579355</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.001661666666666667</v>
+        <v>0.001364</v>
       </c>
       <c r="H6">
-        <v>0.004985</v>
+        <v>0.004092</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>173.8965253333333</v>
+        <v>214.223699</v>
       </c>
       <c r="N6">
-        <v>521.689576</v>
+        <v>642.6710969999999</v>
       </c>
       <c r="O6">
-        <v>0.4274857259954915</v>
+        <v>0.4584124125255553</v>
       </c>
       <c r="P6">
-        <v>0.4274857259954916</v>
+        <v>0.4584124125255552</v>
       </c>
       <c r="Q6">
-        <v>0.2889580595955555</v>
+        <v>0.292201125436</v>
       </c>
       <c r="R6">
-        <v>2.60062253636</v>
+        <v>2.629810128924</v>
       </c>
       <c r="S6">
-        <v>0.4274857259954915</v>
+        <v>0.4584124125255553</v>
       </c>
       <c r="T6">
-        <v>0.4274857259954916</v>
+        <v>0.4584124125255552</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.001661666666666667</v>
+        <v>0.001364</v>
       </c>
       <c r="H7">
-        <v>0.004985</v>
+        <v>0.004092</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>101.0756123333334</v>
+        <v>108.4856083333333</v>
       </c>
       <c r="N7">
-        <v>303.226837</v>
+        <v>325.456825</v>
       </c>
       <c r="O7">
-        <v>0.2484717934181257</v>
+        <v>0.2321458814899178</v>
       </c>
       <c r="P7">
-        <v>0.2484717934181257</v>
+        <v>0.2321458814899178</v>
       </c>
       <c r="Q7">
-        <v>0.1679539758272222</v>
+        <v>0.1479743697666667</v>
       </c>
       <c r="R7">
-        <v>1.511585782445</v>
+        <v>1.3317693279</v>
       </c>
       <c r="S7">
-        <v>0.2484717934181257</v>
+        <v>0.2321458814899178</v>
       </c>
       <c r="T7">
-        <v>0.2484717934181257</v>
+        <v>0.2321458814899178</v>
       </c>
     </row>
   </sheetData>
